--- a/planilhas/07-2025/10-07-2025.xlsx
+++ b/planilhas/07-2025/10-07-2025.xlsx
@@ -2621,14 +2621,18 @@
         <f>WEEKDAY(B8)</f>
         <v/>
       </c>
-      <c r="D8" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E8" s="117" t="n"/>
-      <c r="F8" s="117" t="n"/>
-      <c r="G8" s="118" t="n"/>
+      <c r="D8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="124">
         <f>IF(ISERROR(IF(OR($Z8="",$Z8=0),0,(IF(TEXT($Z8,"[hh]:mm:ss")&lt;TEXT($Y8,"[hh]:mm:ss"),(1-$Y8+$Z8),$Z8-$Y8))+IF(OR($AB8="",$AB8=0),0,(IF(TEXT($AB8,"[hh]:mm:ss")&lt;TEXT($AA8,"[hh]:mm:ss"),(1-$AA8+$AB8),$AB8-$AA8))))),0,IF(OR($Z8="",$Z8=0),0,(IF(TEXT($Z8,"[hh]:mm:ss")&lt;TEXT($Y8,"[hh]:mm:ss"),(1-$Y8+$Z8),$Z8-$Y8))+IF(OR($AB8="",$AB8=0),0,(IF(TEXT($AB8,"[hh]:mm:ss")&lt;TEXT($AA8,"[hh]:mm:ss"),(1-$AA8+$AB8),$AB8-$AA8)))))</f>
         <v/>
@@ -2692,14 +2696,18 @@
         <f>WEEKDAY(B9)</f>
         <v/>
       </c>
-      <c r="D9" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E9" s="117" t="n"/>
-      <c r="F9" s="117" t="n"/>
-      <c r="G9" s="118" t="n"/>
+      <c r="D9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="124">
         <f>IF(ISERROR(IF(OR($Z9="",$Z9=0),0,(IF(TEXT($Z9,"[hh]:mm:ss")&lt;TEXT($Y9,"[hh]:mm:ss"),(1-$Y9+$Z9),$Z9-$Y9))+IF(OR($AB9="",$AB9=0),0,(IF(TEXT($AB9,"[hh]:mm:ss")&lt;TEXT($AA9,"[hh]:mm:ss"),(1-$AA9+$AB9),$AB9-$AA9))))),0,IF(OR($Z9="",$Z9=0),0,(IF(TEXT($Z9,"[hh]:mm:ss")&lt;TEXT($Y9,"[hh]:mm:ss"),(1-$Y9+$Z9),$Z9-$Y9))+IF(OR($AB9="",$AB9=0),0,(IF(TEXT($AB9,"[hh]:mm:ss")&lt;TEXT($AA9,"[hh]:mm:ss"),(1-$AA9+$AB9),$AB9-$AA9)))))</f>
         <v/>
@@ -2763,14 +2771,18 @@
         <f>WEEKDAY(B10)</f>
         <v/>
       </c>
-      <c r="D10" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E10" s="117" t="n"/>
-      <c r="F10" s="117" t="n"/>
-      <c r="G10" s="118" t="n"/>
+      <c r="D10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I10" s="124">
         <f>IF(ISERROR(IF(OR($Z10="",$Z10=0),0,(IF(TEXT($Z10,"[hh]:mm:ss")&lt;TEXT($Y10,"[hh]:mm:ss"),(1-$Y10+$Z10),$Z10-$Y10))+IF(OR($AB10="",$AB10=0),0,(IF(TEXT($AB10,"[hh]:mm:ss")&lt;TEXT($AA10,"[hh]:mm:ss"),(1-$AA10+$AB10),$AB10-$AA10))))),0,IF(OR($Z10="",$Z10=0),0,(IF(TEXT($Z10,"[hh]:mm:ss")&lt;TEXT($Y10,"[hh]:mm:ss"),(1-$Y10+$Z10),$Z10-$Y10))+IF(OR($AB10="",$AB10=0),0,(IF(TEXT($AB10,"[hh]:mm:ss")&lt;TEXT($AA10,"[hh]:mm:ss"),(1-$AA10+$AB10),$AB10-$AA10)))))</f>
         <v/>
@@ -2834,14 +2846,18 @@
         <f>WEEKDAY(B11)</f>
         <v/>
       </c>
-      <c r="D11" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E11" s="117" t="n"/>
-      <c r="F11" s="117" t="n"/>
-      <c r="G11" s="118" t="n"/>
+      <c r="D11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" s="124">
         <f>IF(ISERROR(IF(OR($Z11="",$Z11=0),0,(IF(TEXT($Z11,"[hh]:mm:ss")&lt;TEXT($Y11,"[hh]:mm:ss"),(1-$Y11+$Z11),$Z11-$Y11))+IF(OR($AB11="",$AB11=0),0,(IF(TEXT($AB11,"[hh]:mm:ss")&lt;TEXT($AA11,"[hh]:mm:ss"),(1-$AA11+$AB11),$AB11-$AA11))))),0,IF(OR($Z11="",$Z11=0),0,(IF(TEXT($Z11,"[hh]:mm:ss")&lt;TEXT($Y11,"[hh]:mm:ss"),(1-$Y11+$Z11),$Z11-$Y11))+IF(OR($AB11="",$AB11=0),0,(IF(TEXT($AB11,"[hh]:mm:ss")&lt;TEXT($AA11,"[hh]:mm:ss"),(1-$AA11+$AB11),$AB11-$AA11)))))</f>
         <v/>
@@ -2980,14 +2996,18 @@
         <f>WEEKDAY(B13)</f>
         <v/>
       </c>
-      <c r="D13" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E13" s="117" t="n"/>
-      <c r="F13" s="117" t="n"/>
-      <c r="G13" s="118" t="n"/>
+      <c r="D13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" s="124">
         <f>IF(ISERROR(IF(OR($Z13="",$Z13=0),0,(IF(TEXT($Z13,"[hh]:mm:ss")&lt;TEXT($Y13,"[hh]:mm:ss"),(1-$Y13+$Z13),$Z13-$Y13))+IF(OR($AB13="",$AB13=0),0,(IF(TEXT($AB13,"[hh]:mm:ss")&lt;TEXT($AA13,"[hh]:mm:ss"),(1-$AA13+$AB13),$AB13-$AA13))))),0,IF(OR($Z13="",$Z13=0),0,(IF(TEXT($Z13,"[hh]:mm:ss")&lt;TEXT($Y13,"[hh]:mm:ss"),(1-$Y13+$Z13),$Z13-$Y13))+IF(OR($AB13="",$AB13=0),0,(IF(TEXT($AB13,"[hh]:mm:ss")&lt;TEXT($AA13,"[hh]:mm:ss"),(1-$AA13+$AB13),$AB13-$AA13)))))</f>
         <v/>
@@ -3053,14 +3073,18 @@
         <f>WEEKDAY(B14)</f>
         <v/>
       </c>
-      <c r="D14" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E14" s="117" t="n"/>
-      <c r="F14" s="117" t="n"/>
-      <c r="G14" s="118" t="n"/>
+      <c r="D14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I14" s="124">
         <f>IF(ISERROR(IF(OR($Z14="",$Z14=0),0,(IF(TEXT($Z14,"[hh]:mm:ss")&lt;TEXT($Y14,"[hh]:mm:ss"),(1-$Y14+$Z14),$Z14-$Y14))+IF(OR($AB14="",$AB14=0),0,(IF(TEXT($AB14,"[hh]:mm:ss")&lt;TEXT($AA14,"[hh]:mm:ss"),(1-$AA14+$AB14),$AB14-$AA14))))),0,IF(OR($Z14="",$Z14=0),0,(IF(TEXT($Z14,"[hh]:mm:ss")&lt;TEXT($Y14,"[hh]:mm:ss"),(1-$Y14+$Z14),$Z14-$Y14))+IF(OR($AB14="",$AB14=0),0,(IF(TEXT($AB14,"[hh]:mm:ss")&lt;TEXT($AA14,"[hh]:mm:ss"),(1-$AA14+$AB14),$AB14-$AA14)))))</f>
         <v/>
@@ -3114,14 +3138,18 @@
         <f>WEEKDAY(B15)</f>
         <v/>
       </c>
-      <c r="D15" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E15" s="117" t="n"/>
-      <c r="F15" s="117" t="n"/>
-      <c r="G15" s="118" t="n"/>
+      <c r="D15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="124">
         <f>IF(ISERROR(IF(OR($Z15="",$Z15=0),0,(IF(TEXT($Z15,"[hh]:mm:ss")&lt;TEXT($Y15,"[hh]:mm:ss"),(1-$Y15+$Z15),$Z15-$Y15))+IF(OR($AB15="",$AB15=0),0,(IF(TEXT($AB15,"[hh]:mm:ss")&lt;TEXT($AA15,"[hh]:mm:ss"),(1-$AA15+$AB15),$AB15-$AA15))))),0,IF(OR($Z15="",$Z15=0),0,(IF(TEXT($Z15,"[hh]:mm:ss")&lt;TEXT($Y15,"[hh]:mm:ss"),(1-$Y15+$Z15),$Z15-$Y15))+IF(OR($AB15="",$AB15=0),0,(IF(TEXT($AB15,"[hh]:mm:ss")&lt;TEXT($AA15,"[hh]:mm:ss"),(1-$AA15+$AB15),$AB15-$AA15)))))</f>
         <v/>
@@ -3236,14 +3264,18 @@
         <f>WEEKDAY(B17)</f>
         <v/>
       </c>
-      <c r="D17" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E17" s="117" t="n"/>
-      <c r="F17" s="117" t="n"/>
-      <c r="G17" s="118" t="n"/>
+      <c r="D17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" s="124">
         <f>IF(ISERROR(IF(OR($Z17="",$Z17=0),0,(IF(TEXT($Z17,"[hh]:mm:ss")&lt;TEXT($Y17,"[hh]:mm:ss"),(1-$Y17+$Z17),$Z17-$Y17))+IF(OR($AB17="",$AB17=0),0,(IF(TEXT($AB17,"[hh]:mm:ss")&lt;TEXT($AA17,"[hh]:mm:ss"),(1-$AA17+$AB17),$AB17-$AA17))))),0,IF(OR($Z17="",$Z17=0),0,(IF(TEXT($Z17,"[hh]:mm:ss")&lt;TEXT($Y17,"[hh]:mm:ss"),(1-$Y17+$Z17),$Z17-$Y17))+IF(OR($AB17="",$AB17=0),0,(IF(TEXT($AB17,"[hh]:mm:ss")&lt;TEXT($AA17,"[hh]:mm:ss"),(1-$AA17+$AB17),$AB17-$AA17)))))</f>
         <v/>
@@ -3297,14 +3329,18 @@
         <f>WEEKDAY(B18)</f>
         <v/>
       </c>
-      <c r="D18" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E18" s="117" t="n"/>
-      <c r="F18" s="117" t="n"/>
-      <c r="G18" s="118" t="n"/>
+      <c r="D18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" s="124">
         <f>IF(ISERROR(IF(OR($Z18="",$Z18=0),0,(IF(TEXT($Z18,"[hh]:mm:ss")&lt;TEXT($Y18,"[hh]:mm:ss"),(1-$Y18+$Z18),$Z18-$Y18))+IF(OR($AB18="",$AB18=0),0,(IF(TEXT($AB18,"[hh]:mm:ss")&lt;TEXT($AA18,"[hh]:mm:ss"),(1-$AA18+$AB18),$AB18-$AA18))))),0,IF(OR($Z18="",$Z18=0),0,(IF(TEXT($Z18,"[hh]:mm:ss")&lt;TEXT($Y18,"[hh]:mm:ss"),(1-$Y18+$Z18),$Z18-$Y18))+IF(OR($AB18="",$AB18=0),0,(IF(TEXT($AB18,"[hh]:mm:ss")&lt;TEXT($AA18,"[hh]:mm:ss"),(1-$AA18+$AB18),$AB18-$AA18)))))</f>
         <v/>
@@ -3423,14 +3459,18 @@
         <f>WEEKDAY(B20)</f>
         <v/>
       </c>
-      <c r="D20" s="131" t="inlineStr">
-        <is>
-          <t>Falta sem Justificativa</t>
-        </is>
-      </c>
-      <c r="E20" s="117" t="n"/>
-      <c r="F20" s="117" t="n"/>
-      <c r="G20" s="118" t="n"/>
+      <c r="D20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I20" s="124">
         <f>IF(ISERROR(IF(OR($Z20="",$Z20=0),0,(IF(TEXT($Z20,"[hh]:mm:ss")&lt;TEXT($Y20,"[hh]:mm:ss"),(1-$Y20+$Z20),$Z20-$Y20))+IF(OR($AB20="",$AB20=0),0,(IF(TEXT($AB20,"[hh]:mm:ss")&lt;TEXT($AA20,"[hh]:mm:ss"),(1-$AA20+$AB20),$AB20-$AA20))))),0,IF(OR($Z20="",$Z20=0),0,(IF(TEXT($Z20,"[hh]:mm:ss")&lt;TEXT($Y20,"[hh]:mm:ss"),(1-$Y20+$Z20),$Z20-$Y20))+IF(OR($AB20="",$AB20=0),0,(IF(TEXT($AB20,"[hh]:mm:ss")&lt;TEXT($AA20,"[hh]:mm:ss"),(1-$AA20+$AB20),$AB20-$AA20)))))</f>
         <v/>
@@ -4672,28 +4712,18 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="1" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="AD15"/>
-  <mergeCells count="21">
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D9:G9"/>
+  <mergeCells count="11">
     <mergeCell ref="B2:S2"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="I4:O4"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="U4:V4"/>
   </mergeCells>
   <pageMargins left="0.3149606299212598" right="0.3149606299212598" top="0.1968503937007874" bottom="0.1968503937007874" header="0.3149606299212598" footer="0"/>
   <pageSetup orientation="landscape" paperSize="9"/>
